--- a/Results/Three_Mutation_File.xlsx
+++ b/Results/Three_Mutation_File.xlsx
@@ -17,9 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
-    <t xml:space="preserve">BCAT_comple_Inhibitor</t>
+    <t xml:space="preserve">Beta_Catenin_complex_Inhibitor</t>
   </si>
   <si>
     <t xml:space="preserve">GLI_Inhibitor</t>
@@ -64,124 +64,280 @@
     <t xml:space="preserve">Norm_Mean_Size_Difference</t>
   </si>
   <si>
+    <t xml:space="preserve">0.736607451067486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.753235896680882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.754300596314975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.847655207005058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.850813122755709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.931654601457141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.959787625694862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.969709295410063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9712605960488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99840378234545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Untreated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
     <t xml:space="preserve">AKT_Inhibitor + STAT3_Inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.511881798377498</t>
   </si>
   <si>
     <t xml:space="preserve">CREB_Inhibitor + STAT3_Inhibitor</t>
   </si>
   <si>
+    <t xml:space="preserve">0.526209494625346</t>
+  </si>
+  <si>
     <t xml:space="preserve">NFKB_Inhibitor + CREB_Inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.546798123799614</t>
   </si>
   <si>
     <t xml:space="preserve">AKT_Inhibitor + NFKB_Inhibitor</t>
   </si>
   <si>
+    <t xml:space="preserve">0.562628876484029</t>
+  </si>
+  <si>
     <t xml:space="preserve">GLI_Inhibitor + NFKB_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">BCAT_comple_Inhibitor + NFKB_Inhibitor</t>
+    <t xml:space="preserve">0.58046425894826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + NFKB_Inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.608597283185981</t>
   </si>
   <si>
     <t xml:space="preserve">NFKB_Inhibitor + PI3K_Inhibitor</t>
   </si>
   <si>
+    <t xml:space="preserve">0.625119674734262</t>
+  </si>
+  <si>
     <t xml:space="preserve">NFKB_Inhibitor + STAT3_Inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.634213290944979</t>
   </si>
   <si>
     <t xml:space="preserve">STAT3_Inhibitor + PI3K_Inhibitor</t>
   </si>
   <si>
+    <t xml:space="preserve">0.638603929240728</t>
+  </si>
+  <si>
     <t xml:space="preserve">GLI_Inhibitor + AKT_Inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.649655594622269</t>
   </si>
   <si>
     <t xml:space="preserve">GLI_Inhibitor + AKT_Inhibitor + STAT3_Inhibitor</t>
   </si>
   <si>
+    <t xml:space="preserve">0.369098923072956</t>
+  </si>
+  <si>
     <t xml:space="preserve">GLI_Inhibitor + NFKB_Inhibitor + CREB_Inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.390619996223644</t>
   </si>
   <si>
     <t xml:space="preserve">NFKB_Inhibitor + CREB_Inhibitor + STAT3_Inhibitor</t>
   </si>
   <si>
+    <t xml:space="preserve">0.391751239584867</t>
+  </si>
+  <si>
     <t xml:space="preserve">GLI_Inhibitor + CREB_Inhibitor + STAT3_Inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.402067180883318</t>
   </si>
   <si>
     <t xml:space="preserve">GLI_Inhibitor + AKT_Inhibitor + NFKB_Inhibitor</t>
   </si>
   <si>
+    <t xml:space="preserve">0.403391401053221</t>
+  </si>
+  <si>
     <t xml:space="preserve">AKT_Inhibitor + NFKB_Inhibitor + STAT3_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">BCAT_comple_Inhibitor + GLI_Inhibitor + NFKB_Inhibitor</t>
+    <t xml:space="preserve">0.40914161087391</t>
   </si>
   <si>
-    <t xml:space="preserve">BCAT_comple_Inhibitor + AKT_Inhibitor + STAT3_Inhibitor</t>
+    <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + GLI_Inhibitor + NFKB_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">BCAT_comple_Inhibitor + NFKB_Inhibitor + CREB_Inhibitor</t>
+    <t xml:space="preserve">0.423627348473695</t>
   </si>
   <si>
-    <t xml:space="preserve">BCAT_comple_Inhibitor + AKT_Inhibitor + NFKB_Inhibitor</t>
+    <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + AKT_Inhibitor + STAT3_Inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.44102603772863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + NFKB_Inhibitor + CREB_Inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.448892338072079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + AKT_Inhibitor + NFKB_Inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.458474634778913</t>
   </si>
   <si>
     <t xml:space="preserve">GLI_Inhibitor + NFKB_Inhibitor + CREB_Inhibitor + STAT3_Inhibitor</t>
   </si>
   <si>
+    <t xml:space="preserve">0.226165492585781</t>
+  </si>
+  <si>
     <t xml:space="preserve">GLI_Inhibitor + AKT_Inhibitor + NFKB_Inhibitor + STAT3_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">BCAT_comple_Inhibitor + GLI_Inhibitor + NFKB_Inhibitor + CREB_Inhibitor</t>
+    <t xml:space="preserve">0.239648083499069</t>
   </si>
   <si>
-    <t xml:space="preserve">BCAT_comple_Inhibitor + GLI_Inhibitor + AKT_Inhibitor + NFKB_Inhibitor</t>
+    <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + GLI_Inhibitor + NFKB_Inhibitor + CREB_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">BCAT_comple_Inhibitor + GLI_Inhibitor + AKT_Inhibitor + STAT3_Inhibitor</t>
+    <t xml:space="preserve">0.269317436036922</t>
   </si>
   <si>
-    <t xml:space="preserve">BCAT_comple_Inhibitor + NFKB_Inhibitor + CREB_Inhibitor + STAT3_Inhibitor</t>
+    <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + GLI_Inhibitor + AKT_Inhibitor + NFKB_Inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.274802302745677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + GLI_Inhibitor + AKT_Inhibitor + STAT3_Inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.277481519559281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + NFKB_Inhibitor + CREB_Inhibitor + STAT3_Inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.301730885522331</t>
   </si>
   <si>
     <t xml:space="preserve">GLI_Inhibitor + Notch_complex_Inhibitor + AKT_Inhibitor + STAT3_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">BCAT_comple_Inhibitor + AKT_Inhibitor + NFKB_Inhibitor + STAT3_Inhibitor</t>
+    <t xml:space="preserve">0.30247201628325</t>
   </si>
   <si>
-    <t xml:space="preserve">BCAT_comple_Inhibitor + GLI_Inhibitor + NFKB_Inhibitor + STAT3_Inhibitor</t>
+    <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + AKT_Inhibitor + NFKB_Inhibitor + STAT3_Inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.311575198154742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + GLI_Inhibitor + NFKB_Inhibitor + STAT3_Inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.31187547672342</t>
   </si>
   <si>
     <t xml:space="preserve">GLI_Inhibitor + NFKB_Inhibitor + STAT3_Inhibitor + PI3K_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">BCAT_comple_Inhibitor + GLI_Inhibitor + NFKB_Inhibitor + CREB_Inhibitor + STAT3_Inhibitor</t>
+    <t xml:space="preserve">0.319065110541608</t>
   </si>
   <si>
-    <t xml:space="preserve">BCAT_comple_Inhibitor + GLI_Inhibitor + AKT_Inhibitor + NFKB_Inhibitor + STAT3_Inhibitor</t>
+    <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + GLI_Inhibitor + NFKB_Inhibitor + CREB_Inhibitor + STAT3_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">BCAT_comple_Inhibitor + GLI_Inhibitor + NFKB_Inhibitor + STAT3_Inhibitor + PI3K_Inhibitor</t>
+    <t xml:space="preserve">0.113546888789628</t>
   </si>
   <si>
-    <t xml:space="preserve">BCAT_comple_Inhibitor + GLI_Inhibitor + Notch_complex_Inhibitor + AKT_Inhibitor + STAT3_Inhibitor</t>
+    <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + GLI_Inhibitor + AKT_Inhibitor + NFKB_Inhibitor + STAT3_Inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118445338903043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + GLI_Inhibitor + NFKB_Inhibitor + STAT3_Inhibitor + PI3K_Inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186588194976448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + GLI_Inhibitor + Notch_complex_Inhibitor + AKT_Inhibitor + STAT3_Inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.193606478697273</t>
   </si>
   <si>
     <t xml:space="preserve">GLI_Inhibitor + NFKB_Inhibitor + CREB_Inhibitor + STAT3_Inhibitor + Hippo_complex_Inhibitor</t>
   </si>
   <si>
+    <t xml:space="preserve">0.205556900293375</t>
+  </si>
+  <si>
     <t xml:space="preserve">GLI_Inhibitor + Notch_complex_Inhibitor + NFKB_Inhibitor + CREB_Inhibitor + STAT3_Inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.211193153981353</t>
   </si>
   <si>
     <t xml:space="preserve">GLI_Inhibitor + AKT_Inhibitor + NFKB_Inhibitor + STAT3_Inhibitor + Hippo_complex_Inhibitor</t>
   </si>
   <si>
+    <t xml:space="preserve">0.213529670600233</t>
+  </si>
+  <si>
     <t xml:space="preserve">GLI_Inhibitor + AKT_Inhibitor + NFKB_Inhibitor + CREB_Inhibitor + STAT3_Inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.216579036896001</t>
   </si>
   <si>
     <t xml:space="preserve">GLI_Inhibitor + NFKB_Inhibitor + CREB_Inhibitor + STAT3_Inhibitor + PI3K_Inhibitor</t>
   </si>
   <si>
+    <t xml:space="preserve">0.220206085922924</t>
+  </si>
+  <si>
     <t xml:space="preserve">GLI_Inhibitor + Notch_complex_Inhibitor + AKT_Inhibitor + NFKB_Inhibitor + STAT3_Inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220610754963538</t>
   </si>
 </sst>
 </file>
@@ -42564,80 +42720,88 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.736607451067486</v>
+      <c r="B2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="n">
-        <v>0.753235896680882</v>
+      <c r="B3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="n">
-        <v>0.754300596314975</v>
+      <c r="B4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="n">
-        <v>0.847655207005058</v>
+      <c r="B5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="n">
-        <v>0.850813122755709</v>
+      <c r="B6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" t="n">
-        <v>0.931654601457141</v>
+      <c r="B7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>0</v>
       </c>
-      <c r="B8" t="n">
-        <v>0.959787625694862</v>
+      <c r="B8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="n">
-        <v>0.969709295410063</v>
+      <c r="B9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" t="n">
-        <v>0.9712605960488</v>
+      <c r="B10" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" t="n">
-        <v>0.99840378234545</v>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -42664,82 +42828,90 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.511881798377498</v>
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.526209494625346</v>
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.546798123799614</v>
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.562628876484029</v>
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.58046425894826</v>
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.608597283185981</v>
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.625119674734262</v>
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.634213290944979</v>
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.638603929240728</v>
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.649655594622269</v>
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -42766,82 +42938,90 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.369098923072956</v>
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.390619996223644</v>
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.391751239584867</v>
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.402067180883318</v>
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.403391401053221</v>
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.40914161087391</v>
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.423627348473695</v>
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.44102603772863</v>
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.448892338072079</v>
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.458474634778913</v>
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -42868,82 +43048,90 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.226165492585781</v>
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.239648083499069</v>
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.269317436036922</v>
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.274802302745677</v>
+        <v>73</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.277481519559281</v>
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.301730885522331</v>
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.30247201628325</v>
+        <v>79</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.311575198154742</v>
+        <v>81</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.31187547672342</v>
+        <v>83</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.319065110541608</v>
+        <v>85</v>
+      </c>
+      <c r="B11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -42970,82 +43158,90 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.113546888789628</v>
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.118445338903043</v>
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.186588194976448</v>
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.193606478697273</v>
+        <v>93</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.205556900293375</v>
+        <v>95</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.211193153981353</v>
+        <v>97</v>
+      </c>
+      <c r="B7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.213529670600233</v>
+        <v>99</v>
+      </c>
+      <c r="B8" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.216579036896001</v>
+        <v>101</v>
+      </c>
+      <c r="B9" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.220206085922924</v>
+        <v>103</v>
+      </c>
+      <c r="B10" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.220610754963538</v>
+        <v>105</v>
+      </c>
+      <c r="B11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Three_Mutation_File.xlsx
+++ b/Results/Three_Mutation_File.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t xml:space="preserve">Beta_Catenin_complex_Inhibitor</t>
   </si>
@@ -64,286 +64,130 @@
     <t xml:space="preserve">Norm_Mean_Size_Difference</t>
   </si>
   <si>
-    <t xml:space="preserve">0.736607451067486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.753235896680882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.754300596314975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.847655207005058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.850813122755709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.931654601457141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.959787625694862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.969709295410063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9712605960488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99840378234545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Untreated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
     <t xml:space="preserve">AKT_Inhibitor + STAT3_Inhibitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.511881798377498</t>
   </si>
   <si>
     <t xml:space="preserve">CREB_Inhibitor + STAT3_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">0.526209494625346</t>
-  </si>
-  <si>
     <t xml:space="preserve">NFKB_Inhibitor + CREB_Inhibitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.546798123799614</t>
   </si>
   <si>
     <t xml:space="preserve">AKT_Inhibitor + NFKB_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">0.562628876484029</t>
-  </si>
-  <si>
     <t xml:space="preserve">GLI_Inhibitor + NFKB_Inhibitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.58046425894826</t>
   </si>
   <si>
     <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + NFKB_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">0.608597283185981</t>
-  </si>
-  <si>
     <t xml:space="preserve">NFKB_Inhibitor + PI3K_Inhibitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.625119674734262</t>
   </si>
   <si>
     <t xml:space="preserve">NFKB_Inhibitor + STAT3_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">0.634213290944979</t>
-  </si>
-  <si>
     <t xml:space="preserve">STAT3_Inhibitor + PI3K_Inhibitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.638603929240728</t>
   </si>
   <si>
     <t xml:space="preserve">GLI_Inhibitor + AKT_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">0.649655594622269</t>
-  </si>
-  <si>
     <t xml:space="preserve">GLI_Inhibitor + AKT_Inhibitor + STAT3_Inhibitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.369098923072956</t>
   </si>
   <si>
     <t xml:space="preserve">GLI_Inhibitor + NFKB_Inhibitor + CREB_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">0.390619996223644</t>
-  </si>
-  <si>
     <t xml:space="preserve">NFKB_Inhibitor + CREB_Inhibitor + STAT3_Inhibitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.391751239584867</t>
   </si>
   <si>
     <t xml:space="preserve">GLI_Inhibitor + CREB_Inhibitor + STAT3_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">0.402067180883318</t>
-  </si>
-  <si>
     <t xml:space="preserve">GLI_Inhibitor + AKT_Inhibitor + NFKB_Inhibitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.403391401053221</t>
   </si>
   <si>
     <t xml:space="preserve">AKT_Inhibitor + NFKB_Inhibitor + STAT3_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40914161087391</t>
-  </si>
-  <si>
     <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + GLI_Inhibitor + NFKB_Inhibitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.423627348473695</t>
   </si>
   <si>
     <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + AKT_Inhibitor + STAT3_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">0.44102603772863</t>
-  </si>
-  <si>
     <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + NFKB_Inhibitor + CREB_Inhibitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.448892338072079</t>
   </si>
   <si>
     <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + AKT_Inhibitor + NFKB_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">0.458474634778913</t>
-  </si>
-  <si>
     <t xml:space="preserve">GLI_Inhibitor + NFKB_Inhibitor + CREB_Inhibitor + STAT3_Inhibitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.226165492585781</t>
   </si>
   <si>
     <t xml:space="preserve">GLI_Inhibitor + AKT_Inhibitor + NFKB_Inhibitor + STAT3_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">0.239648083499069</t>
-  </si>
-  <si>
     <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + GLI_Inhibitor + NFKB_Inhibitor + CREB_Inhibitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.269317436036922</t>
   </si>
   <si>
     <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + GLI_Inhibitor + AKT_Inhibitor + NFKB_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">0.274802302745677</t>
-  </si>
-  <si>
     <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + GLI_Inhibitor + AKT_Inhibitor + STAT3_Inhibitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.277481519559281</t>
   </si>
   <si>
     <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + NFKB_Inhibitor + CREB_Inhibitor + STAT3_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">0.301730885522331</t>
-  </si>
-  <si>
     <t xml:space="preserve">GLI_Inhibitor + Notch_complex_Inhibitor + AKT_Inhibitor + STAT3_Inhibitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.30247201628325</t>
   </si>
   <si>
     <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + AKT_Inhibitor + NFKB_Inhibitor + STAT3_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">0.311575198154742</t>
-  </si>
-  <si>
     <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + GLI_Inhibitor + NFKB_Inhibitor + STAT3_Inhibitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.31187547672342</t>
   </si>
   <si>
     <t xml:space="preserve">GLI_Inhibitor + NFKB_Inhibitor + STAT3_Inhibitor + PI3K_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">0.319065110541608</t>
-  </si>
-  <si>
     <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + GLI_Inhibitor + NFKB_Inhibitor + CREB_Inhibitor + STAT3_Inhibitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113546888789628</t>
   </si>
   <si>
     <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + GLI_Inhibitor + AKT_Inhibitor + NFKB_Inhibitor + STAT3_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">0.118445338903043</t>
-  </si>
-  <si>
     <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + GLI_Inhibitor + NFKB_Inhibitor + STAT3_Inhibitor + PI3K_Inhibitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186588194976448</t>
   </si>
   <si>
     <t xml:space="preserve">Beta_Catenin_complex_Inhibitor + GLI_Inhibitor + Notch_complex_Inhibitor + AKT_Inhibitor + STAT3_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193606478697273</t>
-  </si>
-  <si>
     <t xml:space="preserve">GLI_Inhibitor + NFKB_Inhibitor + CREB_Inhibitor + STAT3_Inhibitor + Hippo_complex_Inhibitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.205556900293375</t>
   </si>
   <si>
     <t xml:space="preserve">GLI_Inhibitor + Notch_complex_Inhibitor + NFKB_Inhibitor + CREB_Inhibitor + STAT3_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">0.211193153981353</t>
-  </si>
-  <si>
     <t xml:space="preserve">GLI_Inhibitor + AKT_Inhibitor + NFKB_Inhibitor + STAT3_Inhibitor + Hippo_complex_Inhibitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.213529670600233</t>
   </si>
   <si>
     <t xml:space="preserve">GLI_Inhibitor + AKT_Inhibitor + NFKB_Inhibitor + CREB_Inhibitor + STAT3_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">0.216579036896001</t>
-  </si>
-  <si>
     <t xml:space="preserve">GLI_Inhibitor + NFKB_Inhibitor + CREB_Inhibitor + STAT3_Inhibitor + PI3K_Inhibitor</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220206085922924</t>
-  </si>
-  <si>
     <t xml:space="preserve">GLI_Inhibitor + Notch_complex_Inhibitor + AKT_Inhibitor + NFKB_Inhibitor + STAT3_Inhibitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220610754963538</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -662,10 +506,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -42701,10 +42545,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -42720,88 +42564,80 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
+      <c r="B2" t="n">
+        <v>0.736607451067486</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
+      <c r="B3" t="n">
+        <v>0.753235896680882</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>17</v>
+      <c r="B4" t="n">
+        <v>0.754300596314975</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
+      <c r="B5" t="n">
+        <v>0.847655207005058</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>19</v>
+      <c r="B6" t="n">
+        <v>0.850813122755709</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
-        <v>20</v>
+      <c r="B7" t="n">
+        <v>0.931654601457141</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>0</v>
       </c>
-      <c r="B8" t="s">
-        <v>21</v>
+      <c r="B8" t="n">
+        <v>0.959787625694862</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
-        <v>22</v>
+      <c r="B9" t="n">
+        <v>0.969709295410063</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
+      <c r="B10" t="n">
+        <v>0.9712605960488</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
+      <c r="B11" t="n">
+        <v>0.99840378234545</v>
       </c>
     </row>
   </sheetData>
@@ -42811,10 +42647,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -42828,90 +42664,82 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
+        <v>15</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.511881798377498</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
+        <v>16</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.526209494625346</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
+        <v>17</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.546798123799614</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.562628876484029</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
+        <v>19</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.58046425894826</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
+        <v>20</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.608597283185981</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
+        <v>21</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.625119674734262</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
+        <v>22</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.634213290944979</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" t="s">
-        <v>44</v>
+        <v>23</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.638603929240728</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.649655594622269</v>
       </c>
     </row>
   </sheetData>
@@ -42921,10 +42749,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -42938,90 +42766,82 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" t="s">
-        <v>48</v>
+        <v>25</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.369098923072956</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
+        <v>26</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.390619996223644</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
+        <v>27</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.391751239584867</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" t="s">
-        <v>54</v>
+        <v>28</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.402067180883318</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" t="s">
-        <v>56</v>
+        <v>29</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.403391401053221</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" t="s">
-        <v>58</v>
+        <v>30</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.40914161087391</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" t="s">
-        <v>60</v>
+        <v>31</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.423627348473695</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" t="s">
-        <v>62</v>
+        <v>32</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.44102603772863</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" t="s">
-        <v>64</v>
+        <v>33</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.448892338072079</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
+        <v>34</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.458474634778913</v>
       </c>
     </row>
   </sheetData>
@@ -43031,10 +42851,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -43048,90 +42868,82 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" t="s">
-        <v>68</v>
+        <v>35</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.226165492585781</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" t="s">
-        <v>70</v>
+        <v>36</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.239648083499069</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" t="s">
-        <v>72</v>
+        <v>37</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.269317436036922</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" t="s">
-        <v>74</v>
+        <v>38</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.274802302745677</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" t="s">
-        <v>76</v>
+        <v>39</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.277481519559281</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" t="s">
-        <v>78</v>
+        <v>40</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.301730885522331</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" t="s">
-        <v>80</v>
+        <v>41</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.30247201628325</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" t="s">
-        <v>82</v>
+        <v>42</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.311575198154742</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" t="s">
-        <v>84</v>
+        <v>43</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.31187547672342</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
+        <v>44</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.319065110541608</v>
       </c>
     </row>
   </sheetData>
@@ -43141,10 +42953,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -43158,90 +42970,82 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" t="s">
-        <v>88</v>
+        <v>45</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.113546888789628</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" t="s">
-        <v>90</v>
+        <v>46</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.118445338903043</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" t="s">
-        <v>92</v>
+        <v>47</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.186588194976448</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" t="s">
-        <v>94</v>
+        <v>48</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.193606478697273</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" t="s">
-        <v>96</v>
+        <v>49</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.205556900293375</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" t="s">
-        <v>98</v>
+        <v>50</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.211193153981353</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" t="s">
-        <v>100</v>
+        <v>51</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.213529670600233</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" t="s">
-        <v>102</v>
+        <v>52</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.216579036896001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" t="s">
-        <v>104</v>
+        <v>53</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.220206085922924</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
+        <v>54</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.220610754963538</v>
       </c>
     </row>
   </sheetData>
